--- a/Aufgabe1/tracetable-cows.xlsx
+++ b/Aufgabe1/tracetable-cows.xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophie/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="460" windowWidth="13100" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="4420" yWindow="460" windowWidth="24380" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Zeile</t>
   </si>
@@ -122,18 +122,6 @@
     <t>Schleife 5 &gt; 0</t>
   </si>
   <si>
-    <t>„muuh“</t>
-  </si>
-  <si>
-    <t>„muuhu“</t>
-  </si>
-  <si>
-    <t>„muuhuu“</t>
-  </si>
-  <si>
-    <t>„muuhuuh“</t>
-  </si>
-  <si>
     <t>„muuhuuhu“</t>
   </si>
   <si>
@@ -183,6 +171,15 @@
   </si>
   <si>
     <t>result : string</t>
+  </si>
+  <si>
+    <t>„muuuu“</t>
+  </si>
+  <si>
+    <t>„muuuuh“</t>
+  </si>
+  <si>
+    <t>„muuuuhu“</t>
   </si>
 </sst>
 </file>
@@ -525,15 +522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>405320</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>67554</xdr:rowOff>
+      <xdr:colOff>349291</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>810640</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>54042</xdr:rowOff>
+      <xdr:colOff>754611</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>128749</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -542,8 +539,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4769256" y="11065214"/>
-          <a:ext cx="1229469" cy="189147"/>
+          <a:off x="4682232" y="12057848"/>
+          <a:ext cx="1227085" cy="191930"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -835,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="68" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,15 +855,15 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -877,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -905,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -922,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -949,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -974,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1122,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -1149,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
@@ -1174,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1563,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -1588,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1611,11 +1608,11 @@
         <v>5</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1733,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -1747,13 +1744,13 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -1766,16 +1763,16 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="K50" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -1785,16 +1782,14 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6">
-        <v>2</v>
-      </c>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
@@ -1804,12 +1799,14 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
@@ -1821,16 +1818,16 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="K53" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
@@ -1840,16 +1837,14 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="6">
-        <v>1</v>
-      </c>
+      <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -1859,12 +1854,14 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
@@ -1876,13 +1873,13 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -1895,16 +1892,16 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
@@ -1914,46 +1911,29 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="6">
-        <v>0</v>
-      </c>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="G59" s="6">
-        <v>14</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A59" s="6">
         <v>3</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="B59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
